--- a/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/PDF Submission/Solution Checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD16F4B6-9003-4A7E-8932-68856F15A0B8}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="795" windowWidth="15075" windowHeight="14805" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Homes</t>
   </si>
@@ -58,14 +58,31 @@
   </si>
   <si>
     <t>numNewBuilds[b] &gt;= newBuildPercShare[b] * sum[b](numNewBuilds[b]), forall b in Businesses</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>implied demos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -164,13 +181,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -187,10 +205,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23D72E-2E03-44F7-817D-AFC9835123F9}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +539,10 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -535,84 +557,148 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="2">
         <f>E3 * SUM($C$3:$C$5)</f>
-        <v>44</v>
+        <v>8.5</v>
       </c>
       <c r="H3" t="b">
         <f>C3 &gt;= F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>150000</v>
+      </c>
+      <c r="K3" s="10">
+        <f>J3 * C3</f>
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="2">
         <f>E4 * SUM($C$3:$C$5)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" t="b">
         <f t="shared" ref="H4:H5" si="0">C4 &gt;= F4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>190000</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K5" si="1">J4 * C4</f>
+        <v>11780000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>0.05</v>
       </c>
       <c r="F5" s="2">
         <f>E5 * SUM($C$3:$C$5)</f>
-        <v>11</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>20000</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="10">
+        <f>SUMPRODUCT(J3:J5, C3:C5)</f>
+        <v>14450000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F7" s="8">
         <f>F3/SUM($C$3:$C$5)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="2">F4/SUM($C$3:$C$5)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="1">F4/SUM($C$3:$C$5)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10">
+        <v>548000</v>
+      </c>
+      <c r="E15" s="9">
+        <f>C15 / 4000</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10">
+        <v>14450000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10">
+        <f>SUM(C15:C16)</f>
+        <v>14998000</v>
       </c>
     </row>
   </sheetData>

--- a/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/PDF Submission/Solution Checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD16F4B6-9003-4A7E-8932-68856F15A0B8}"/>
+  <xr:revisionPtr revIDLastSave="553" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0FA2C81-E73B-4506-8848-1FBDC858F5FB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Homes</t>
   </si>
@@ -73,6 +74,69 @@
   </si>
   <si>
     <t>implied demos</t>
+  </si>
+  <si>
+    <t>Node 1</t>
+  </si>
+  <si>
+    <t>Fathomed:</t>
+  </si>
+  <si>
+    <t>Fathomed: Infeasible Solution</t>
+  </si>
+  <si>
+    <t>Round 2: Try to make y integer</t>
+  </si>
+  <si>
+    <t>Round 3: Try to make x integer</t>
+  </si>
+  <si>
+    <t>Round 4: Try to make y integer</t>
+  </si>
+  <si>
+    <t>Current &amp; Final Optimal Integer feasible solution</t>
+  </si>
+  <si>
+    <t>Integer feasible, but less than incumbent solution</t>
+  </si>
+  <si>
+    <t>Cannot have y&gt;=2 while x = 6</t>
+  </si>
+  <si>
+    <t>(Infeas.) Solution would be 2.5*6 + 5*2 = 27, (&gt;=26)</t>
+  </si>
+  <si>
+    <t>Cannot have y&gt;=3 while x = 4</t>
+  </si>
+  <si>
+    <t>(Infeas.) Solution would be 2.5*4 + 5*3 = 28, (&gt;=26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished here since node 5 children </t>
+  </si>
+  <si>
+    <t>Round 1: Solved by AMPL: Fix x=4 and solve for y (see code above)</t>
+  </si>
+  <si>
+    <t>found nothing better and/or feasible</t>
+  </si>
+  <si>
+    <t>Node 2: try lower y &lt;= 2</t>
+  </si>
+  <si>
+    <t>Node  3: try upper y &gt;= 3</t>
+  </si>
+  <si>
+    <t>Node 5: try upper x &gt;= 6</t>
+  </si>
+  <si>
+    <t>Node 4: try lower x &lt;= 5</t>
+  </si>
+  <si>
+    <t>Node 6:  try lower y &lt;= 1</t>
+  </si>
+  <si>
+    <t>Node 7: try upper y &gt;= 2</t>
   </si>
 </sst>
 </file>
@@ -84,7 +148,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +193,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +227,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,15 +265,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -208,12 +309,33 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -229,45 +351,1547 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>270208</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DD5FFE-8FC7-4323-A321-5678E4221B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466996" y="4191974"/>
+          <a:ext cx="1828800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="30000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="-25000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = 24.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x = 5, y = 2 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179946</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>193393</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A66437-73DA-4378-B06F-D3C216722169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5626005" y="256762"/>
+          <a:ext cx="1828800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> = 26.8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x = 4, y =  2.8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>467872</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481319</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77CE4CC-79E8-41F7-8C65-C4369F1F066F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3493460" y="2108435"/>
+          <a:ext cx="1828800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="30000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="-25000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = 25.33</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x = 5.33, y =  2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484287</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>58465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>497734</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A66E0A-EB13-489D-AFB0-584BF48B1529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7745699" y="2153965"/>
+          <a:ext cx="1828800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Infeasible</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>with y &gt;= 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167094</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180541</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDD48AD-2F73-4FC1-9AEC-B6685E3ABA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613153" y="4191974"/>
+          <a:ext cx="1828800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="30000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="-25000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = 24.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x = 6, y = 1.6 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>467870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481317</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9BDF1D-03FD-41CA-B370-02B884CD5184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3493458" y="6438998"/>
+          <a:ext cx="1828800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="30000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="-25000" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = 23.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x = 7, y =  1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471434</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>484881</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775550D6-5835-4C62-A3C0-652C9E14A3F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7732846" y="6438998"/>
+          <a:ext cx="1828800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="363636"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Infeasible</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="363636"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>with y &gt;= 2 while x = 6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172036</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>489229</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD13A90D-164C-48A3-920B-3C4C5D099E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="3" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4407860" y="1171162"/>
+          <a:ext cx="2132545" cy="937273"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>489229</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>188452</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>58465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E53B872-6BF5-475F-AEB7-82487BD1D409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="3" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6540405" y="1171162"/>
+          <a:ext cx="2119694" cy="982803"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566043</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172036</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE5455E-BBCA-4E73-BD8B-4E75F07F0028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="4" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2381396" y="3022835"/>
+          <a:ext cx="2026464" cy="1169139"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172036</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476377</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB5EC5D-DE42-4DE1-BE91-8CB303C0A108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="4" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4407860" y="3022835"/>
+          <a:ext cx="2119693" cy="1169139"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172034</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476377</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152498</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1964A84-44B6-4D27-A345-9BC11B1A18C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="6" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4407858" y="5106374"/>
+          <a:ext cx="2119695" cy="1332624"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476377</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152498</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6958BA72-7378-486C-8CB1-A892051CF578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="6" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6527553" y="5106374"/>
+          <a:ext cx="2119693" cy="1332624"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="OPA Excel Theme (Dark Font)">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 13">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="363636"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="363636"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FAFAFA"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A8D3DE"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="F2A896"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="C2DCD1"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="C7BBDB"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="F7D2B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="FEE6BA"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="A2ACB7"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="D0C3C5"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -281,7 +1905,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -333,7 +1957,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -518,7 +2142,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="OPA Analytical Theme" id="{C3791AA3-2BCE-4DE3-A11E-8EEFB3DF1A0D}" vid="{6D5C3EE0-D954-490F-883D-FAFEFEB86FF6}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23D72E-2E03-44F7-817D-AFC9835123F9}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,4 +2328,169 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDD06EB-489A-46D0-97F2-4F17DCF836F2}">
+  <dimension ref="B2:W35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="12">
+        <f>SUMPRODUCT(W4:W5, V4:V5)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="G11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="O33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="O34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="O35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/PDF Submission/Solution Checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0FA2C81-E73B-4506-8848-1FBDC858F5FB}"/>
+  <xr:revisionPtr revIDLastSave="1441" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5C0A3840-86A0-494D-914C-4E7FD8CA6106}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
     <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Problem 3 (i)" sheetId="3" r:id="rId3"/>
+    <sheet name="Problem 3 (ii)" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Problem 3 (ii)'!$B$2:$W$10</definedName>
+    <definedName name="x1_" localSheetId="3">'Problem 3 (ii)'!#REF!</definedName>
+    <definedName name="x1_">'Problem 3 (i)'!$C$6</definedName>
+    <definedName name="x2_" localSheetId="3">'Problem 3 (ii)'!#REF!</definedName>
+    <definedName name="x2_">'Problem 3 (i)'!$D$6</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="60">
   <si>
     <t>Homes</t>
   </si>
@@ -137,18 +146,221 @@
   </si>
   <si>
     <t>Node 7: try upper y &gt;= 2</t>
+  </si>
+  <si>
+    <t>Fitness Evaluation</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Current Solution</t>
+  </si>
+  <si>
+    <r>
+      <t>Starting Solution, S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Neighbor 1 (x1 + 1, x2)</t>
+  </si>
+  <si>
+    <t>Neighbor 2 (x1 - 1, x2)</t>
+  </si>
+  <si>
+    <t>Neighbor 3 (x1, x2 + 1)</t>
+  </si>
+  <si>
+    <t>Neighbor 4 (x1, x2 - 1)</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <r>
+      <t>=x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39994506668294322"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39991454817346722"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*cos(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39988402966399123"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39985351115451523"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)*sin(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39982299264503923"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39979247413556324"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) + 0.5*x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39976195562608724"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>(New) Best Neighbor</t>
+  </si>
+  <si>
+    <t>is Best Neighbor Same as Old?</t>
+  </si>
+  <si>
+    <t>Best Neighbor (current)</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>done if same</t>
+  </si>
+  <si>
+    <t>current solution from past iteration</t>
+  </si>
+  <si>
+    <t>=min(neighbors, best_neighbor)</t>
+  </si>
+  <si>
+    <t>done if same: end if end while</t>
+  </si>
+  <si>
+    <t>Calculation Note / Comment</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Guiding Solution</t>
+  </si>
+  <si>
+    <t>Initiating Solution</t>
+  </si>
+  <si>
+    <t>Path to the guided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +421,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39994506668294322"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39991454817346722"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39988402966399123"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39985351115451523"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39982299264503923"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39979247413556324"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39976195562608724"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +542,26 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -280,6 +608,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -289,7 +817,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -329,6 +857,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="3" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -338,7 +915,178 @@
     <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1853,6 +2601,343 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connector: Elbow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFD1A44-2D07-43B0-A080-5FAA1F2F2F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4429125" y="695325"/>
+          <a:ext cx="3143250" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connector: Elbow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8047F19-0D6F-4C63-AE12-142F805B3C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="1419225"/>
+          <a:ext cx="2524125" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B63364-8640-4952-BF27-C864CC8C3D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4795837" y="1595440"/>
+          <a:ext cx="2543178" cy="2514598"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 89326"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1B50C3-463F-4593-AE15-18D05D58AE26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="1590675"/>
+          <a:ext cx="352425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Elbow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F635DF-5CEC-4EE4-95A8-626CA0736DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3505201" y="2562224"/>
+          <a:ext cx="4133849" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104779</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1447801</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Connector: Elbow 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD65296-B8D6-4316-AA31-971ADAAD3CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8605838" y="2919416"/>
+          <a:ext cx="6438903" cy="2066922"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 444"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="OPA Excel Theme (Dark Font)">
   <a:themeElements>
@@ -2334,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDD06EB-489A-46D0-97F2-4F17DCF836F2}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -2493,4 +3578,1391 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4D429F-0FAD-4E51-A5D6-04B3E7306A79}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:H52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" ref="E3" si="0">C3 * COS(C3) * SIN(D3) + 0.5*D3</f>
+        <v>0.24319750469207169</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" ref="E6" si="1">C6 * COS(C6) * SIN(D6) + 0.5*D6</f>
+        <v>0.24319750469207169</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="45">
+        <f>C6</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="45">
+        <f>D6</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="46">
+        <f>E6</f>
+        <v>0.24319750469207169</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="str">
+        <f>"Neighbors of (" &amp; C6 &amp; ", " &amp; D6 &amp; ")"</f>
+        <v>Neighbors of (2, 2)</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="40">
+        <f>C6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="40">
+        <f>D6</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="41">
+        <f t="shared" ref="E13:E16" si="2">C13 * COS(C13) * SIN(D13) + 0.5*D13</f>
+        <v>-1.7005928892065527</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="34">
+        <f>C6 - 1</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="34">
+        <f>D6</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="2"/>
+        <v>1.491295496433882</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="34">
+        <f>C6</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="34">
+        <f>D6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="2"/>
+        <v>1.3825467101447579</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="37">
+        <f>C6</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="37">
+        <f>D6 - 1</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" si="2"/>
+        <v>-0.20035097674802926</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="25">
+        <f>INDEX(C13:C16, MATCH(D18, D13:D16, 0), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="25">
+        <f>INDEX(D13:D16, MATCH(E18, E13:E16, 0), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <f>MIN(E13:E16, E10)</f>
+        <v>-1.7005928892065527</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="b">
+        <f>E18 = E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="b">
+        <f>C19</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="27">
+        <f t="shared" ref="C23:E23" si="3">C18</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="28">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="3"/>
+        <v>-1.7005928892065527</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="45">
+        <f>C23</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="45">
+        <f>D23</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="46">
+        <f>E23</f>
+        <v>-1.7005928892065527</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="str">
+        <f>"Neighbors of (" &amp; C23 &amp; ", " &amp; D23 &amp; ")"</f>
+        <v>Neighbors of (3, 2)</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B29" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="40">
+        <f>C23 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="40">
+        <f>D23</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="41">
+        <f t="shared" ref="E29:E32" si="4">C29 * COS(C29) * SIN(D29) + 0.5*D29</f>
+        <v>-1.3774258500492151</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="34">
+        <f>C23 - 1</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="34">
+        <f>D23</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="35">
+        <f t="shared" si="4"/>
+        <v>0.24319750469207169</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="34">
+        <f>C23</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="34">
+        <f>D23 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="35">
+        <f t="shared" si="4"/>
+        <v>1.0808767527016112</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="37">
+        <f>C23</f>
+        <v>3</v>
+      </c>
+      <c r="D32" s="37">
+        <f>D23 - 1</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="38">
+        <f t="shared" si="4"/>
+        <v>-1.9991498832004151</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="25">
+        <f>INDEX(C29:C32, MATCH(D34, D29:D32, 0), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="25">
+        <f>INDEX(D29:D32, MATCH(E34, E29:E32, 0), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="29">
+        <f>MIN(E29:E32, E26)</f>
+        <v>-1.9991498832004151</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="b">
+        <f>E34 = E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="b">
+        <f>C35</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="27">
+        <f t="shared" ref="C39:E39" si="5">C34</f>
+        <v>3</v>
+      </c>
+      <c r="D39" s="28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" si="5"/>
+        <v>-1.9991498832004151</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="45">
+        <f>C39</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="45">
+        <f>D39</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="46">
+        <f>E39</f>
+        <v>-1.9991498832004151</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="str">
+        <f>"Neighbors of (" &amp; C39 &amp; ", " &amp; D39 &amp; ")"</f>
+        <v>Neighbors of (3, 1)</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="40">
+        <f>C39 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="D45" s="40">
+        <f>D39</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="41">
+        <f t="shared" ref="E45:E48" si="6">C45 * COS(C45) * SIN(D45) + 0.5*D45</f>
+        <v>-1.7000885654460114</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="34">
+        <f>C39 - 1</f>
+        <v>2</v>
+      </c>
+      <c r="D46" s="34">
+        <f>D39</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="35">
+        <f t="shared" si="6"/>
+        <v>-0.20035097674802926</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="34">
+        <f>C39</f>
+        <v>3</v>
+      </c>
+      <c r="D47" s="34">
+        <f>D39 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="35">
+        <f t="shared" si="6"/>
+        <v>-1.7005928892065527</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="37">
+        <f>C39</f>
+        <v>3</v>
+      </c>
+      <c r="D48" s="37">
+        <f>D39 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="25">
+        <f>IFERROR(INDEX(C45:C48, MATCH(D50, D45:D48, 0), 1), C39)</f>
+        <v>4</v>
+      </c>
+      <c r="D50" s="25">
+        <f>IFERROR(INDEX(D45:D48, MATCH(E50, E45:E48, 0), 1), D39)</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="29">
+        <f>MIN(E45:E48, E42)</f>
+        <v>-1.9991498832004151</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="b">
+        <f>E50 = E42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="b">
+        <f>C51</f>
+        <v>1</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18D4587-F967-47CA-924E-C1058BF6DDBB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:W36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="2.7109375" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="26"/>
+      <c r="K2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="S2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="26"/>
+    </row>
+    <row r="3" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E3" s="21">
+        <f>C3 * COS(C3) * SIN(D3) + 0.5*D3</f>
+        <v>-0.50870450356611807</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="11" t="str">
+        <f>B6</f>
+        <v>Neighbor 1 (x1 + 1, x2)</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:L3" si="0">C6</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="M3" s="21">
+        <f>K3 * COS(K3) * SIN(L3) + 0.5*L3</f>
+        <v>-1</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>-4</v>
+      </c>
+      <c r="U3" s="21">
+        <f>S3 * COS(S3) * SIN(T3) + 0.5*T3</f>
+        <v>-1.5910978666983644</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="48">
+        <f>$T$3 - C3</f>
+        <v>-3</v>
+      </c>
+      <c r="D4" s="48">
+        <f>$T$3 - D3</f>
+        <v>-2</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="48">
+        <f>$T$3 - K3</f>
+        <v>-4</v>
+      </c>
+      <c r="L4" s="48">
+        <f>$T$3 - L3</f>
+        <v>-2</v>
+      </c>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:23" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="str">
+        <f>"Neighbors of (" &amp;C3 &amp; ", " &amp;D3&amp; ")"</f>
+        <v>Neighbors of (-1, -2)</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="J5" s="32" t="str">
+        <f>"Neighbors of (" &amp;K3 &amp; ", " &amp;L3&amp; ")"</f>
+        <v>Neighbors of (0, -2)</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="40">
+        <f>C3 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <f>D3</f>
+        <v>-2</v>
+      </c>
+      <c r="E6" s="41">
+        <f t="shared" ref="E6:E9" si="1">C6 * COS(C6) * SIN(D6) + 0.5*D6</f>
+        <v>-1</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="40">
+        <f>K3 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="40">
+        <f>L3</f>
+        <v>-2</v>
+      </c>
+      <c r="M6" s="41">
+        <f t="shared" ref="M6:M9" si="2">K6 * COS(K6) * SIN(L6) + 0.5*L6</f>
+        <v>-1.491295496433882</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="34">
+        <f>C3 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="D7" s="34">
+        <f>D3</f>
+        <v>-2</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.7568024953079284</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="34">
+        <f>K3 - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="L7" s="34">
+        <f>L3</f>
+        <v>-2</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.50870450356611807</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="34">
+        <f>C3</f>
+        <v>-1</v>
+      </c>
+      <c r="D8" s="34">
+        <f>D3 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="1"/>
+        <v>-4.535128658715909E-2</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="34">
+        <f>K3</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="34">
+        <f>L3 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="37">
+        <f>C3</f>
+        <v>-1</v>
+      </c>
+      <c r="D9" s="37">
+        <f>D3 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="E9" s="38">
+        <f t="shared" si="1"/>
+        <v>-1.4237525342411232</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="37">
+        <f>K3</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
+        <f>L3 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="M9" s="38">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="K11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J12" s="11" t="str">
+        <f>B7</f>
+        <v>Neighbor 2 (x1 - 1, x2)</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:L12" si="3">C7</f>
+        <v>-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="M12" s="21">
+        <f>K12 * COS(K12) * SIN(L12) + 0.5*L12</f>
+        <v>-1.7568024953079284</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J13" s="6"/>
+      <c r="K13" s="48">
+        <f>$T$3 - K12</f>
+        <v>-2</v>
+      </c>
+      <c r="L13" s="48">
+        <f>$T$3 - L12</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="J14" s="32" t="str">
+        <f>"Neighbors of (" &amp;K12 &amp; ", " &amp;L12&amp; ")"</f>
+        <v>Neighbors of (-2, -2)</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J15" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="40">
+        <f>K12 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="L15" s="40">
+        <f>L12</f>
+        <v>-2</v>
+      </c>
+      <c r="M15" s="41">
+        <f t="shared" ref="M15:M18" si="4">K15 * COS(K15) * SIN(L15) + 0.5*L15</f>
+        <v>-0.50870450356611807</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="34">
+        <f>K12 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="L16" s="34">
+        <f>L12</f>
+        <v>-2</v>
+      </c>
+      <c r="M16" s="35">
+        <f t="shared" si="4"/>
+        <v>-3.7005928892065527</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="34">
+        <f>K12</f>
+        <v>-2</v>
+      </c>
+      <c r="L17" s="34">
+        <f>L12 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="35">
+        <f t="shared" si="4"/>
+        <v>-1.2003509767480294</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="37">
+        <f>K12</f>
+        <v>-2</v>
+      </c>
+      <c r="L18" s="37">
+        <f>L12 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="M18" s="38">
+        <f t="shared" si="4"/>
+        <v>-1.6174532898552421</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="K20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="11" t="str">
+        <f>B8</f>
+        <v>Neighbor 3 (x1, x2 + 1)</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" ref="K21:L21" si="5">C8</f>
+        <v>-1</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="M21" s="21">
+        <f>K21 * COS(K21) * SIN(L21) + 0.5*L21</f>
+        <v>-4.535128658715909E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="6"/>
+      <c r="K22" s="48">
+        <f>$T$3 - K21</f>
+        <v>-3</v>
+      </c>
+      <c r="L22" s="48">
+        <f>$T$3 - L21</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="J23" s="32" t="str">
+        <f>"Neighbors of (" &amp;K21 &amp; ", " &amp;L21&amp; ")"</f>
+        <v>Neighbors of (-1, -1)</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="40">
+        <f>K21 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
+        <f>L21</f>
+        <v>-1</v>
+      </c>
+      <c r="M24" s="41">
+        <f t="shared" ref="M24:M27" si="6">K24 * COS(K24) * SIN(L24) + 0.5*L24</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="34">
+        <f>K21 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="L25" s="34">
+        <f>L21</f>
+        <v>-1</v>
+      </c>
+      <c r="M25" s="35">
+        <f t="shared" si="6"/>
+        <v>-1.2003509767480294</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="34">
+        <f>K21</f>
+        <v>-1</v>
+      </c>
+      <c r="L26" s="34">
+        <f>L21 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="37">
+        <f>K21</f>
+        <v>-1</v>
+      </c>
+      <c r="L27" s="37">
+        <f>L21 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="M27" s="38">
+        <f t="shared" si="6"/>
+        <v>-0.50870450356611807</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="G29" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="11" t="str">
+        <f>B9</f>
+        <v>Neighbor 4 (x1, x2 - 1)</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" ref="K30:L30" si="7">C9</f>
+        <v>-1</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="M30" s="21">
+        <f>K30 * COS(K30) * SIN(L30) + 0.5*L30</f>
+        <v>-1.4237525342411232</v>
+      </c>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="6"/>
+      <c r="K31" s="48">
+        <f>$T$3 - K30</f>
+        <v>-3</v>
+      </c>
+      <c r="L31" s="48">
+        <f>$T$3 - L30</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="J32" s="32" t="str">
+        <f>"Neighbors of (" &amp;K30 &amp; ", " &amp;L30&amp; ")"</f>
+        <v>Neighbors of (-1, -3)</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="40">
+        <f>K30 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="40">
+        <f>L30</f>
+        <v>-3</v>
+      </c>
+      <c r="M33" s="41">
+        <f t="shared" ref="M33:M36" si="8">K33 * COS(K33) * SIN(L33) + 0.5*L33</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="34">
+        <f>K30 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="L34" s="34">
+        <f>L30</f>
+        <v>-3</v>
+      </c>
+      <c r="M34" s="35">
+        <f t="shared" si="8"/>
+        <v>-1.6174532898552421</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="34">
+        <f>K30</f>
+        <v>-1</v>
+      </c>
+      <c r="L35" s="34">
+        <f>L30 + 1</f>
+        <v>-2</v>
+      </c>
+      <c r="M35" s="35">
+        <f t="shared" si="8"/>
+        <v>-0.50870450356611807</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="37">
+        <f>K30</f>
+        <v>-1</v>
+      </c>
+      <c r="L36" s="37">
+        <f>L30 - 1</f>
+        <v>-4</v>
+      </c>
+      <c r="M36" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.4089021333016358</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E6:E9">
+    <cfRule type="top10" dxfId="10" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M9">
+    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M18">
+    <cfRule type="top10" dxfId="7" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:M27">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:M36">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/PDF Submission/Solution Checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1441" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5C0A3840-86A0-494D-914C-4E7FD8CA6106}"/>
+  <xr:revisionPtr revIDLastSave="1578" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{49990CA6-A1A7-4285-851E-E982B2183807}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Problem 3 (ii)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Problem 3 (ii)'!$B$2:$W$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Problem 3 (ii)'!$B$3:$AD$11</definedName>
     <definedName name="x1_" localSheetId="3">'Problem 3 (ii)'!#REF!</definedName>
     <definedName name="x1_">'Problem 3 (i)'!$C$6</definedName>
     <definedName name="x2_" localSheetId="3">'Problem 3 (ii)'!#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="63">
   <si>
     <t>Homes</t>
   </si>
@@ -345,7 +345,16 @@
     <t>Initiating Solution</t>
   </si>
   <si>
-    <t>Path to the guided</t>
+    <t>was min, but infeasible</t>
+  </si>
+  <si>
+    <t>Path to the guided solution</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Iteration 5</t>
   </si>
 </sst>
 </file>
@@ -356,11 +365,11 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,14 +522,28 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +846,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -863,7 +892,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="3" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -875,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,13 +912,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -900,12 +929,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -915,7 +959,27 @@
     <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2607,35 +2671,160 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Connector: Elbow 7">
+        <xdr:cNvPr id="9" name="Connector: Elbow 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFD1A44-2D07-43B0-A080-5FAA1F2F2F86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8047F19-0D6F-4C63-AE12-142F805B3C3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4429125" y="695325"/>
-          <a:ext cx="3143250" cy="571500"/>
+        <a:xfrm>
+          <a:off x="4429125" y="1419225"/>
+          <a:ext cx="2524125" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28562"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560297</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B63364-8640-4952-BF27-C864CC8C3D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4867837" y="1665198"/>
+          <a:ext cx="2535331" cy="2320175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1B50C3-463F-4593-AE15-18D05D58AE26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434168" y="1539128"/>
+          <a:ext cx="541244" cy="18490"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2661,174 +2850,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Connector: Elbow 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8047F19-0D6F-4C63-AE12-142F805B3C3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4429125" y="1419225"/>
-          <a:ext cx="2524125" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381002</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47628</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Connector: Elbow 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B63364-8640-4952-BF27-C864CC8C3D20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4795837" y="1595440"/>
-          <a:ext cx="2543178" cy="2514598"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 89326"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1B50C3-463F-4593-AE15-18D05D58AE26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4448175" y="1590675"/>
-          <a:ext cx="352425" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2842,22 +2870,161 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3505201" y="2562224"/>
-          <a:ext cx="4133849" cy="2762250"/>
+        <a:xfrm>
+          <a:off x="4415118" y="1176618"/>
+          <a:ext cx="1949823" cy="549088"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Connector: Elbow 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2021D81-E6A8-4445-BF29-2C0CBDA74601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20686059" y="683559"/>
+          <a:ext cx="1075765" cy="526675"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 100000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="57150">
+        <a:ln w="76200">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D379A4-D20A-436C-B09B-D6AB3C1BD848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15688235" y="1187824"/>
+          <a:ext cx="694765" cy="582706"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2879,44 +3046,51 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104779</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1447801</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123828</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Connector: Elbow 31">
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD65296-B8D6-4316-AA31-971ADAAD3CC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9E45A0-0A0B-4B2D-81EE-EC1B0DC8D667}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8605838" y="2919416"/>
-          <a:ext cx="6438903" cy="2066922"/>
+        <a:xfrm flipV="1">
+          <a:off x="10701617" y="1759324"/>
+          <a:ext cx="649942" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 444"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="57150">
+        <a:ln w="76200">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2927,6 +3101,356 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF2FA6F-004D-4045-8DD3-391406AE84AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10701618" y="3160059"/>
+          <a:ext cx="593911" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51548</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A0B553-ADF7-48EB-8B53-3196FFA002F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10697136" y="4948518"/>
+          <a:ext cx="593911" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>24653</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>618564</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103095</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4A3B72-D10E-45E3-A23A-16341437E8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10670241" y="7095565"/>
+          <a:ext cx="593911" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800CCA98-3110-4E80-B6C4-1522D4DBCEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15661341" y="3025588"/>
+          <a:ext cx="620806" cy="186018"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>24653</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0572B91E-AFF8-432C-81AC-866F9A000DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15645653" y="4944036"/>
+          <a:ext cx="647700" cy="367552"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1060079</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connector: Elbow 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ECEC8A-7501-4F84-A4C0-6E15398177FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2712947" y="3452535"/>
+          <a:ext cx="5282450" cy="2066362"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100064"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4238,26 +4762,26 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4271,10 +4795,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:W36"/>
+  <dimension ref="B2:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:U9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,680 +4810,1488 @@
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
     <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="2.7109375" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="26"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="2:30" s="57" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="58"/>
+      <c r="J2" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="O2" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="T2" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="Y2" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AD2" s="59"/>
+    </row>
+    <row r="3" spans="2:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="26"/>
-      <c r="K2" s="19" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="26"/>
+      <c r="K3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="S2" s="19" t="s">
+      <c r="N3" s="26"/>
+      <c r="P3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="26"/>
-    </row>
-    <row r="3" spans="2:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="S3" s="26"/>
+      <c r="U3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="26"/>
+      <c r="Z3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="26"/>
+    </row>
+    <row r="4" spans="2:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>-1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>-2</v>
       </c>
-      <c r="E3" s="21">
-        <f>C3 * COS(C3) * SIN(D3) + 0.5*D3</f>
+      <c r="E4" s="21">
+        <f>C4 * COS(C4) * SIN(D4) + 0.5*D4</f>
         <v>-0.50870450356611807</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="11" t="str">
-        <f>B6</f>
+      <c r="J4" s="11" t="str">
+        <f>B7</f>
         <v>Neighbor 1 (x1 + 1, x2)</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:L3" si="0">C6</f>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:L4" si="0">C7</f>
         <v>0</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="M3" s="21">
-        <f>K3 * COS(K3) * SIN(L3) + 0.5*L3</f>
+      <c r="M4" s="21">
+        <f>K4 * COS(K4) * SIN(L4) + 0.5*L4</f>
         <v>-1</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="O4" s="11" t="str">
+        <f t="shared" ref="O4" si="1">J10</f>
+        <v>Neighbor 4 (x1, x2 - 1)</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4" si="2">K10</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4" si="3">L10</f>
+        <v>-3</v>
+      </c>
+      <c r="R4" s="21">
+        <f>P4 * COS(P4) * SIN(Q4) + 0.5*Q4</f>
+        <v>-1.5</v>
+      </c>
+      <c r="T4" s="11" t="str">
+        <f t="shared" ref="T4:V4" si="4">O10</f>
+        <v>Neighbor 4 (x1, x2 - 1)</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="W4" s="21">
+        <f>U4 * COS(U4) * SIN(V4) + 0.5*V4</f>
+        <v>-2</v>
+      </c>
+      <c r="Y4" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="3">
+      <c r="Z4" s="3">
         <v>1</v>
       </c>
-      <c r="T3" s="3">
+      <c r="AA4" s="3">
         <v>-4</v>
       </c>
-      <c r="U3" s="21">
-        <f>S3 * COS(S3) * SIN(T3) + 0.5*T3</f>
+      <c r="AB4" s="21">
+        <f>Z4 * COS(Z4) * SIN(AA4) + 0.5*AA4</f>
         <v>-1.5910978666983644</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="48">
-        <f>$T$3 - C3</f>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="48">
+        <f>$AA$4 - C4</f>
         <v>-3</v>
       </c>
-      <c r="D4" s="48">
-        <f>$T$3 - D3</f>
+      <c r="D5" s="48">
+        <f>$AA$4 - D4</f>
         <v>-2</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="48">
-        <f>$T$3 - K3</f>
+      <c r="J5" s="6"/>
+      <c r="K5" s="48">
+        <f>$AA$4 - K4</f>
         <v>-4</v>
       </c>
-      <c r="L4" s="48">
-        <f>$T$3 - L3</f>
+      <c r="L5" s="48">
+        <f>$AA$4 - L4</f>
         <v>-2</v>
       </c>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:23" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="str">
-        <f>"Neighbors of (" &amp;C3 &amp; ", " &amp;D3&amp; ")"</f>
+      <c r="O5" s="6"/>
+      <c r="P5" s="48">
+        <f>$AA$4 - P4</f>
+        <v>-4</v>
+      </c>
+      <c r="Q5" s="48">
+        <f>$AA$4 - Q4</f>
+        <v>-1</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="48">
+        <f>$AA$4 - U4</f>
+        <v>-4</v>
+      </c>
+      <c r="V5" s="48">
+        <f>$AA$4 - V4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="str">
+        <f>"Neighbors of (" &amp;C4 &amp; ", " &amp;D4&amp; ")"</f>
         <v>Neighbors of (-1, -2)</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="J5" s="32" t="str">
-        <f>"Neighbors of (" &amp;K3 &amp; ", " &amp;L3&amp; ")"</f>
+      <c r="F6" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="32" t="str">
+        <f>"Neighbors of (" &amp;K4 &amp; ", " &amp;L4&amp; ")"</f>
         <v>Neighbors of (0, -2)</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="W5" s="47"/>
-    </row>
-    <row r="6" spans="2:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+      <c r="O6" s="32" t="str">
+        <f>"Neighbors of (" &amp;P4 &amp; ", " &amp;Q4&amp; ")"</f>
+        <v>Neighbors of (0, -3)</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="32" t="str">
+        <f>"Neighbors of (" &amp;U4 &amp; ", " &amp;V4&amp; ")"</f>
+        <v>Neighbors of (0, -4)</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AD6" s="47"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="40">
-        <f>C3 + 1</f>
+      <c r="C7" s="40">
+        <f>C4 + 1</f>
         <v>0</v>
       </c>
-      <c r="D6" s="40">
-        <f>D3</f>
+      <c r="D7" s="40">
+        <f>D4</f>
         <v>-2</v>
       </c>
-      <c r="E6" s="41">
-        <f t="shared" ref="E6:E9" si="1">C6 * COS(C6) * SIN(D6) + 0.5*D6</f>
+      <c r="E7" s="41">
+        <f t="shared" ref="E7:E10" si="5">C7 * COS(C7) * SIN(D7) + 0.5*D7</f>
         <v>-1</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="40">
-        <f>K3 + 1</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="40">
-        <f>L3</f>
-        <v>-2</v>
-      </c>
-      <c r="M6" s="41">
-        <f t="shared" ref="M6:M9" si="2">K6 * COS(K6) * SIN(L6) + 0.5*L6</f>
-        <v>-1.491295496433882</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="34">
-        <f>C3 - 1</f>
-        <v>-2</v>
-      </c>
-      <c r="D7" s="34">
-        <f>D3</f>
-        <v>-2</v>
-      </c>
-      <c r="E7" s="35">
-        <f t="shared" si="1"/>
-        <v>-1.7568024953079284</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="40">
+        <f>K4 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="40">
+        <f>L4</f>
+        <v>-2</v>
+      </c>
+      <c r="M7" s="41">
+        <f t="shared" ref="M7:M10" si="6">K7 * COS(K7) * SIN(L7) + 0.5*L7</f>
+        <v>-1.491295496433882</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="40">
+        <f>P4 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="40">
+        <f>Q4</f>
+        <v>-3</v>
+      </c>
+      <c r="R7" s="41">
+        <f t="shared" ref="R7:R10" si="7">P7 * COS(P7) * SIN(Q7) + 0.5*Q7</f>
+        <v>-1.5762474657588768</v>
+      </c>
+      <c r="T7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="53">
+        <f>U4 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="53">
+        <f>V4</f>
+        <v>-4</v>
+      </c>
+      <c r="W7" s="54">
+        <f t="shared" ref="W7:W10" si="8">U7 * COS(U7) * SIN(V7) + 0.5*V7</f>
+        <v>-1.5910978666983644</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="34">
-        <f>K3 - 1</f>
-        <v>-1</v>
-      </c>
-      <c r="L7" s="34">
-        <f>L3</f>
+      <c r="C8" s="34">
+        <f>C4 - 1</f>
         <v>-2</v>
       </c>
-      <c r="M7" s="35">
-        <f t="shared" si="2"/>
-        <v>-0.50870450356611807</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="34">
-        <f>C3</f>
-        <v>-1</v>
-      </c>
       <c r="D8" s="34">
-        <f>D3 + 1</f>
-        <v>-1</v>
+        <f>D4</f>
+        <v>-2</v>
       </c>
       <c r="E8" s="35">
-        <f t="shared" si="1"/>
-        <v>-4.535128658715909E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.7568024953079284</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>46</v>
       </c>
       <c r="J8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="34">
+        <f>K4 - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="L8" s="34">
+        <f>L4</f>
+        <v>-2</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="6"/>
+        <v>-0.50870450356611807</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="34">
+        <f>P4 - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="34">
+        <f>Q4</f>
+        <v>-3</v>
+      </c>
+      <c r="R8" s="35">
+        <f t="shared" si="7"/>
+        <v>-1.4237525342411232</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="34">
+        <f>U4 - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="V8" s="34">
+        <f>V4</f>
+        <v>-4</v>
+      </c>
+      <c r="W8" s="35">
+        <f t="shared" si="8"/>
+        <v>-2.4089021333016358</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="34">
-        <f>K3</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="34">
-        <f>L3 + 1</f>
+      <c r="C9" s="34">
+        <f>C4</f>
         <v>-1</v>
       </c>
-      <c r="M8" s="35">
-        <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="37">
-        <f>C3</f>
+      <c r="D9" s="34">
+        <f>D4 + 1</f>
         <v>-1</v>
       </c>
-      <c r="D9" s="37">
-        <f>D3 - 1</f>
-        <v>-3</v>
-      </c>
-      <c r="E9" s="38">
-        <f t="shared" si="1"/>
-        <v>-1.4237525342411232</v>
+      <c r="E9" s="35">
+        <f t="shared" si="5"/>
+        <v>-4.535128658715909E-2</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="34">
+        <f>K4</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="34">
+        <f>L4 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="34">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="34">
+        <f>Q4 + 1</f>
+        <v>-2</v>
+      </c>
+      <c r="R9" s="35">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="34">
+        <f>U4</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="34">
+        <f>V4 + 1</f>
+        <v>-3</v>
+      </c>
+      <c r="W9" s="35">
+        <f t="shared" si="8"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="37">
-        <f>K3</f>
+      <c r="C10" s="37">
+        <f>C4</f>
+        <v>-1</v>
+      </c>
+      <c r="D10" s="37">
+        <f>D4 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="E10" s="38">
+        <f t="shared" si="5"/>
+        <v>-1.4237525342411232</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="37">
+        <f>K4</f>
         <v>0</v>
       </c>
-      <c r="L9" s="37">
-        <f>L3 - 1</f>
+      <c r="L10" s="37">
+        <f>L4 - 1</f>
         <v>-3</v>
       </c>
-      <c r="M9" s="38">
-        <f t="shared" si="2"/>
+      <c r="M10" s="38">
+        <f t="shared" si="6"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="K11" s="19" t="s">
+      <c r="O10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="37">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="37">
+        <f>Q4 - 1</f>
+        <v>-4</v>
+      </c>
+      <c r="R10" s="38">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="37">
+        <f>U4</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="37">
+        <f>V4 - 1</f>
+        <v>-5</v>
+      </c>
+      <c r="W10" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="K12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M12" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J12" s="11" t="str">
-        <f>B7</f>
+      <c r="P12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="J13" s="11" t="str">
+        <f>B8</f>
         <v>Neighbor 2 (x1 - 1, x2)</v>
       </c>
-      <c r="K12" s="3">
-        <f t="shared" ref="K12:L12" si="3">C7</f>
+      <c r="K13" s="3">
+        <f t="shared" ref="K13:L13" si="9">C8</f>
         <v>-2</v>
       </c>
-      <c r="L12" s="3">
-        <f t="shared" si="3"/>
+      <c r="L13" s="3">
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
-      <c r="M12" s="21">
-        <f>K12 * COS(K12) * SIN(L12) + 0.5*L12</f>
+      <c r="M13" s="21">
+        <f>K13 * COS(K13) * SIN(L13) + 0.5*L13</f>
         <v>-1.7568024953079284</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J13" s="6"/>
-      <c r="K13" s="48">
-        <f>$T$3 - K12</f>
+      <c r="O13" s="11" t="str">
+        <f>J17</f>
+        <v>Neighbor 2 (x1 - 1, x2)</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13:Q13" si="10">K17</f>
+        <v>-3</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="L13" s="48">
-        <f>$T$3 - L12</f>
+      <c r="R13" s="21">
+        <f>P13 * COS(P13) * SIN(Q13) + 0.5*Q13</f>
+        <v>-3.7005928892065527</v>
+      </c>
+      <c r="T13" s="11" t="str">
+        <f>O17</f>
+        <v>Neighbor 2 (x1 - 1, x2)</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" ref="U13" si="11">P17</f>
+        <v>-4</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" ref="V13" si="12">Q17</f>
         <v>-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="J14" s="32" t="str">
-        <f>"Neighbors of (" &amp;K12 &amp; ", " &amp;L12&amp; ")"</f>
+      <c r="W13" s="21">
+        <f>U13 * COS(U13) * SIN(V13) + 0.5*V13</f>
+        <v>-3.3774258500492151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="J14" s="6"/>
+      <c r="K14" s="48">
+        <f>$AA$4 - K13</f>
+        <v>-2</v>
+      </c>
+      <c r="L14" s="48">
+        <f>$AA$4 - L13</f>
+        <v>-2</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="48">
+        <f>$AA$4 - P13</f>
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="48">
+        <f>$AA$4 - Q13</f>
+        <v>-2</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="48">
+        <f>$AA$4 - U13</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="48">
+        <f>$AA$4 - V13</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="J15" s="32" t="str">
+        <f>"Neighbors of (" &amp;K13 &amp; ", " &amp;L13&amp; ")"</f>
         <v>Neighbors of (-2, -2)</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M15" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J15" s="39" t="s">
+      <c r="O15" s="32" t="str">
+        <f>"Neighbors of (" &amp;P13 &amp; ", " &amp;Q13&amp; ")"</f>
+        <v>Neighbors of (-3, -2)</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="32" t="str">
+        <f>"Neighbors of (" &amp;U13 &amp; ", " &amp;V13&amp; ")"</f>
+        <v>Neighbors of (-4, -2)</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="J16" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="40">
-        <f>K12 + 1</f>
+      <c r="K16" s="40">
+        <f>K13 + 1</f>
         <v>-1</v>
       </c>
-      <c r="L15" s="40">
-        <f>L12</f>
+      <c r="L16" s="40">
+        <f>L13</f>
         <v>-2</v>
       </c>
-      <c r="M15" s="41">
-        <f t="shared" ref="M15:M18" si="4">K15 * COS(K15) * SIN(L15) + 0.5*L15</f>
+      <c r="M16" s="41">
+        <f t="shared" ref="M16:M19" si="13">K16 * COS(K16) * SIN(L16) + 0.5*L16</f>
         <v>-0.50870450356611807</v>
       </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J16" s="33" t="s">
+      <c r="O16" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="40">
+        <f>P13 + 1</f>
+        <v>-2</v>
+      </c>
+      <c r="Q16" s="40">
+        <f>Q13</f>
+        <v>-2</v>
+      </c>
+      <c r="R16" s="41">
+        <f t="shared" ref="R16:R19" si="14">P16 * COS(P16) * SIN(Q16) + 0.5*Q16</f>
+        <v>-1.7568024953079284</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="40">
+        <f>U13 + 1</f>
+        <v>-3</v>
+      </c>
+      <c r="V16" s="40">
+        <f>V13</f>
+        <v>-2</v>
+      </c>
+      <c r="W16" s="41">
+        <f t="shared" ref="W16:W19" si="15">U16 * COS(U16) * SIN(V16) + 0.5*V16</f>
+        <v>-3.7005928892065527</v>
+      </c>
+    </row>
+    <row r="17" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="34">
-        <f>K12 - 1</f>
+      <c r="K17" s="34">
+        <f>K13 - 1</f>
         <v>-3</v>
       </c>
-      <c r="L16" s="34">
-        <f>L12</f>
+      <c r="L17" s="34">
+        <f>L13</f>
         <v>-2</v>
       </c>
-      <c r="M16" s="35">
-        <f t="shared" si="4"/>
+      <c r="M17" s="35">
+        <f t="shared" si="13"/>
         <v>-3.7005928892065527</v>
       </c>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J17" s="33" t="s">
+      <c r="O17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="34">
+        <f>P13 - 1</f>
+        <v>-4</v>
+      </c>
+      <c r="Q17" s="34">
+        <f>Q13</f>
+        <v>-2</v>
+      </c>
+      <c r="R17" s="35">
+        <f t="shared" si="14"/>
+        <v>-3.3774258500492151</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="34">
+        <f>U13 - 1</f>
+        <v>-5</v>
+      </c>
+      <c r="V17" s="34">
+        <f>V13</f>
+        <v>-2</v>
+      </c>
+      <c r="W17" s="35">
+        <f t="shared" si="15"/>
+        <v>0.28966647664730449</v>
+      </c>
+    </row>
+    <row r="18" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="34">
-        <f>K12</f>
+      <c r="K18" s="34">
+        <f>K13</f>
         <v>-2</v>
       </c>
-      <c r="L17" s="34">
-        <f>L12 + 1</f>
+      <c r="L18" s="34">
+        <f>L13 + 1</f>
         <v>-1</v>
       </c>
-      <c r="M17" s="35">
-        <f t="shared" si="4"/>
+      <c r="M18" s="35">
+        <f t="shared" si="13"/>
         <v>-1.2003509767480294</v>
       </c>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="36" t="s">
+      <c r="O18" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="34">
+        <f>P13</f>
+        <v>-3</v>
+      </c>
+      <c r="Q18" s="34">
+        <f>Q13 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="R18" s="35">
+        <f t="shared" si="14"/>
+        <v>-2.9991498832004151</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="34">
+        <f>U13</f>
+        <v>-4</v>
+      </c>
+      <c r="V18" s="34">
+        <f>V13 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="W18" s="35">
+        <f t="shared" si="15"/>
+        <v>-2.7000885654460114</v>
+      </c>
+    </row>
+    <row r="19" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="37">
-        <f>K12</f>
+      <c r="K19" s="37">
+        <f>K13</f>
         <v>-2</v>
       </c>
-      <c r="L18" s="37">
-        <f>L12 - 1</f>
+      <c r="L19" s="37">
+        <f>L13 - 1</f>
         <v>-3</v>
       </c>
-      <c r="M18" s="38">
-        <f t="shared" si="4"/>
+      <c r="M19" s="38">
+        <f t="shared" si="13"/>
         <v>-1.6174532898552421</v>
       </c>
-    </row>
-    <row r="20" spans="7:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="K20" s="19" t="s">
+      <c r="O19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="37">
+        <f>P13</f>
+        <v>-3</v>
+      </c>
+      <c r="Q19" s="37">
+        <f>Q13 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="R19" s="38">
+        <f t="shared" si="14"/>
+        <v>-1.9191232472983888</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="37">
+        <f>U13</f>
+        <v>-4</v>
+      </c>
+      <c r="V19" s="37">
+        <f>V13 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="W19" s="38">
+        <f t="shared" si="15"/>
+        <v>-1.8689687721782149</v>
+      </c>
+    </row>
+    <row r="21" spans="10:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="K21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M21" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="11" t="str">
-        <f>B8</f>
+      <c r="P21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J22" s="11" t="str">
+        <f>B9</f>
         <v>Neighbor 3 (x1, x2 + 1)</v>
       </c>
-      <c r="K21" s="3">
-        <f t="shared" ref="K21:L21" si="5">C8</f>
+      <c r="K22" s="3">
+        <f t="shared" ref="K22:L22" si="16">C9</f>
         <v>-1</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="5"/>
+      <c r="L22" s="3">
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-      <c r="M21" s="21">
-        <f>K21 * COS(K21) * SIN(L21) + 0.5*L21</f>
+      <c r="M22" s="21">
+        <f>K22 * COS(K22) * SIN(L22) + 0.5*L22</f>
         <v>-4.535128658715909E-2</v>
       </c>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="6"/>
-      <c r="K22" s="48">
-        <f>$T$3 - K21</f>
+      <c r="O22" s="11" t="str">
+        <f>J26</f>
+        <v>Neighbor 2 (x1 - 1, x2)</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:Q22" si="17">K26</f>
+        <v>-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="R22" s="21">
+        <f>P22 * COS(P22) * SIN(Q22) + 0.5*Q22</f>
+        <v>-1.2003509767480294</v>
+      </c>
+      <c r="T22" s="11" t="str">
+        <f>O26</f>
+        <v>Neighbor 2 (x1 - 1, x2)</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" ref="U22" si="18">P26</f>
         <v>-3</v>
       </c>
-      <c r="L22" s="48">
-        <f>$T$3 - L21</f>
+      <c r="V22" s="3">
+        <f t="shared" ref="V22" si="19">Q26</f>
+        <v>-1</v>
+      </c>
+      <c r="W22" s="21">
+        <f>U22 * COS(U22) * SIN(V22) + 0.5*V22</f>
+        <v>-2.9991498832004151</v>
+      </c>
+    </row>
+    <row r="23" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J23" s="6"/>
+      <c r="K23" s="48">
+        <f>$AA$4 - K22</f>
         <v>-3</v>
       </c>
-    </row>
-    <row r="23" spans="7:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="J23" s="32" t="str">
-        <f>"Neighbors of (" &amp;K21 &amp; ", " &amp;L21&amp; ")"</f>
+      <c r="L23" s="48">
+        <f>$AA$4 - L22</f>
+        <v>-3</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="48">
+        <f>$AA$4 - P22</f>
+        <v>-2</v>
+      </c>
+      <c r="Q23" s="48">
+        <f>$AA$4 - Q22</f>
+        <v>-3</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="48">
+        <f>$AA$4 - U22</f>
+        <v>-1</v>
+      </c>
+      <c r="V23" s="48">
+        <f>$AA$4 - V22</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="10:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="J24" s="32" t="str">
+        <f>"Neighbors of (" &amp;K22 &amp; ", " &amp;L22&amp; ")"</f>
         <v>Neighbors of (-1, -1)</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M24" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="39" t="s">
+      <c r="O24" s="32" t="str">
+        <f>"Neighbors of (" &amp;P22 &amp; ", " &amp;Q22&amp; ")"</f>
+        <v>Neighbors of (-2, -1)</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="32" t="str">
+        <f>"Neighbors of (" &amp;U22 &amp; ", " &amp;V22&amp; ")"</f>
+        <v>Neighbors of (-3, -1)</v>
+      </c>
+      <c r="U24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="40">
-        <f>K21 + 1</f>
+      <c r="K25" s="40">
+        <f>K22 + 1</f>
         <v>0</v>
       </c>
-      <c r="L24" s="40">
-        <f>L21</f>
+      <c r="L25" s="40">
+        <f>L22</f>
         <v>-1</v>
       </c>
-      <c r="M24" s="41">
-        <f t="shared" ref="M24:M27" si="6">K24 * COS(K24) * SIN(L24) + 0.5*L24</f>
+      <c r="M25" s="41">
+        <f t="shared" ref="M25:M28" si="20">K25 * COS(K25) * SIN(L25) + 0.5*L25</f>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="33" t="s">
+      <c r="O25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="40">
+        <f>P22 + 1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="40">
+        <f>Q22</f>
+        <v>-1</v>
+      </c>
+      <c r="R25" s="41">
+        <f t="shared" ref="R25:R28" si="21">P25 * COS(P25) * SIN(Q25) + 0.5*Q25</f>
+        <v>-4.535128658715909E-2</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="40">
+        <f>U22 + 1</f>
+        <v>-2</v>
+      </c>
+      <c r="V25" s="40">
+        <f>V22</f>
+        <v>-1</v>
+      </c>
+      <c r="W25" s="41">
+        <f t="shared" ref="W25:W28" si="22">U25 * COS(U25) * SIN(V25) + 0.5*V25</f>
+        <v>-1.2003509767480294</v>
+      </c>
+    </row>
+    <row r="26" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J26" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="34">
-        <f>K21 - 1</f>
+      <c r="K26" s="34">
+        <f>K22 - 1</f>
         <v>-2</v>
       </c>
-      <c r="L25" s="34">
-        <f>L21</f>
+      <c r="L26" s="34">
+        <f>L22</f>
         <v>-1</v>
       </c>
-      <c r="M25" s="35">
-        <f t="shared" si="6"/>
+      <c r="M26" s="35">
+        <f t="shared" si="20"/>
         <v>-1.2003509767480294</v>
       </c>
-    </row>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="33" t="s">
+      <c r="O26" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="34">
+        <f>P22 - 1</f>
+        <v>-3</v>
+      </c>
+      <c r="Q26" s="34">
+        <f>Q22</f>
+        <v>-1</v>
+      </c>
+      <c r="R26" s="35">
+        <f t="shared" si="21"/>
+        <v>-2.9991498832004151</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="34">
+        <f>U22 - 1</f>
+        <v>-4</v>
+      </c>
+      <c r="V26" s="34">
+        <f>V22</f>
+        <v>-1</v>
+      </c>
+      <c r="W26" s="35">
+        <f t="shared" si="22"/>
+        <v>-2.7000885654460114</v>
+      </c>
+    </row>
+    <row r="27" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J27" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="34">
-        <f>K21</f>
+      <c r="K27" s="34">
+        <f>K22</f>
         <v>-1</v>
       </c>
-      <c r="L26" s="34">
-        <f>L21 + 1</f>
+      <c r="L27" s="34">
+        <f>L22 + 1</f>
         <v>0</v>
       </c>
-      <c r="M26" s="35">
-        <f t="shared" si="6"/>
+      <c r="M27" s="35">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="36" t="s">
+      <c r="O27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="34">
+        <f>P22</f>
+        <v>-2</v>
+      </c>
+      <c r="Q27" s="34">
+        <f>Q22 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="34">
+        <f>U22</f>
+        <v>-3</v>
+      </c>
+      <c r="V27" s="34">
+        <f>V22 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="35">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="37">
-        <f>K21</f>
+      <c r="K28" s="37">
+        <f>K22</f>
         <v>-1</v>
       </c>
-      <c r="L27" s="37">
-        <f>L21 - 1</f>
+      <c r="L28" s="37">
+        <f>L22 - 1</f>
         <v>-2</v>
       </c>
-      <c r="M27" s="38">
-        <f t="shared" si="6"/>
+      <c r="M28" s="38">
+        <f t="shared" si="20"/>
         <v>-0.50870450356611807</v>
       </c>
-    </row>
-    <row r="29" spans="7:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="G29" s="49" t="s">
+      <c r="O28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="37">
+        <f>P22</f>
+        <v>-2</v>
+      </c>
+      <c r="Q28" s="37">
+        <f>Q22 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="R28" s="38">
+        <f t="shared" si="21"/>
+        <v>-1.7568024953079284</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="37">
+        <f>U22</f>
+        <v>-3</v>
+      </c>
+      <c r="V28" s="37">
+        <f>V22 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="W28" s="38">
+        <f t="shared" si="22"/>
+        <v>-3.7005928892065527</v>
+      </c>
+    </row>
+    <row r="30" spans="10:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="K30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J31" s="11" t="str">
+        <f>B10</f>
+        <v>Neighbor 4 (x1, x2 - 1)</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" ref="K31:L31" si="23">C10</f>
+        <v>-1</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="23"/>
+        <v>-3</v>
+      </c>
+      <c r="M31" s="21">
+        <f>K31 * COS(K31) * SIN(L31) + 0.5*L31</f>
+        <v>-1.4237525342411232</v>
+      </c>
+      <c r="O31" s="11" t="str">
+        <f>J37</f>
+        <v>Neighbor 4 (x1, x2 - 1)</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" ref="P31:Q31" si="24">K37</f>
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="24"/>
+        <v>-4</v>
+      </c>
+      <c r="R31" s="21">
+        <f>P31 * COS(P31) * SIN(Q31) + 0.5*Q31</f>
+        <v>-2.4089021333016358</v>
+      </c>
+    </row>
+    <row r="32" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J32" s="6"/>
+      <c r="K32" s="48">
+        <f>$AA$4 - K31</f>
+        <v>-3</v>
+      </c>
+      <c r="L32" s="48">
+        <f>$AA$4 - L31</f>
+        <v>-1</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="48">
+        <f>$AA$4 - P31</f>
+        <v>-3</v>
+      </c>
+      <c r="Q32" s="48">
+        <f>$AA$4 - Q31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="J33" s="32" t="str">
+        <f>"Neighbors of (" &amp;K31 &amp; ", " &amp;L31&amp; ")"</f>
+        <v>Neighbors of (-1, -3)</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="32" t="str">
+        <f>"Neighbors of (" &amp;P31 &amp; ", " &amp;Q31&amp; ")"</f>
+        <v>Neighbors of (-1, -4)</v>
+      </c>
+      <c r="P33" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="40">
+        <f>K31 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
+        <f>L31</f>
+        <v>-3</v>
+      </c>
+      <c r="M34" s="41">
+        <f t="shared" ref="M34:M37" si="25">K34 * COS(K34) * SIN(L34) + 0.5*L34</f>
+        <v>-1.5</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="40">
+        <f>P31 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="40">
+        <f>Q31</f>
+        <v>-4</v>
+      </c>
+      <c r="R34" s="41">
+        <f t="shared" ref="R34:R37" si="26">P34 * COS(P34) * SIN(Q34) + 0.5*Q34</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J35" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="34">
+        <f>K31 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="L35" s="34">
+        <f>L31</f>
+        <v>-3</v>
+      </c>
+      <c r="M35" s="35">
+        <f t="shared" si="25"/>
+        <v>-1.6174532898552421</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="34">
+        <f>P31 - 1</f>
+        <v>-2</v>
+      </c>
+      <c r="Q35" s="34">
+        <f>Q31</f>
+        <v>-4</v>
+      </c>
+      <c r="R35" s="35">
+        <f t="shared" si="26"/>
+        <v>-1.3701180713732442</v>
+      </c>
+    </row>
+    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J36" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="34">
+        <f>K31</f>
+        <v>-1</v>
+      </c>
+      <c r="L36" s="34">
+        <f>L31 + 1</f>
+        <v>-2</v>
+      </c>
+      <c r="M36" s="35">
+        <f t="shared" si="25"/>
+        <v>-0.50870450356611807</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" s="34">
+        <f>P31</f>
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="34">
+        <f>Q31 + 1</f>
+        <v>-3</v>
+      </c>
+      <c r="R36" s="35">
+        <f t="shared" si="26"/>
+        <v>-1.4237525342411232</v>
+      </c>
+    </row>
+    <row r="37" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="37">
+        <f>K31</f>
+        <v>-1</v>
+      </c>
+      <c r="L37" s="37">
+        <f>L31 - 1</f>
+        <v>-4</v>
+      </c>
+      <c r="M37" s="38">
+        <f t="shared" si="25"/>
+        <v>-2.4089021333016358</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="50">
+        <f>P31</f>
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="50">
+        <f>Q31 - 1</f>
+        <v>-5</v>
+      </c>
+      <c r="R37" s="51">
+        <f t="shared" si="26"/>
+        <v>-3.0181089967534271</v>
+      </c>
+      <c r="S37" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="11" t="str">
-        <f>B9</f>
-        <v>Neighbor 4 (x1, x2 - 1)</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" ref="K30:L30" si="7">C9</f>
-        <v>-1</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="7"/>
-        <v>-3</v>
-      </c>
-      <c r="M30" s="21">
-        <f>K30 * COS(K30) * SIN(L30) + 0.5*L30</f>
-        <v>-1.4237525342411232</v>
-      </c>
-    </row>
-    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="6"/>
-      <c r="K31" s="48">
-        <f>$T$3 - K30</f>
-        <v>-3</v>
-      </c>
-      <c r="L31" s="48">
-        <f>$T$3 - L30</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="7:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="J32" s="32" t="str">
-        <f>"Neighbors of (" &amp;K30 &amp; ", " &amp;L30&amp; ")"</f>
-        <v>Neighbors of (-1, -3)</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="40">
-        <f>K30 + 1</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="40">
-        <f>L30</f>
-        <v>-3</v>
-      </c>
-      <c r="M33" s="41">
-        <f t="shared" ref="M33:M36" si="8">K33 * COS(K33) * SIN(L33) + 0.5*L33</f>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="34">
-        <f>K30 - 1</f>
-        <v>-2</v>
-      </c>
-      <c r="L34" s="34">
-        <f>L30</f>
-        <v>-3</v>
-      </c>
-      <c r="M34" s="35">
-        <f t="shared" si="8"/>
-        <v>-1.6174532898552421</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J35" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="34">
-        <f>K30</f>
-        <v>-1</v>
-      </c>
-      <c r="L35" s="34">
-        <f>L30 + 1</f>
-        <v>-2</v>
-      </c>
-      <c r="M35" s="35">
-        <f t="shared" si="8"/>
-        <v>-0.50870450356611807</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J36" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="37">
-        <f>K30</f>
-        <v>-1</v>
-      </c>
-      <c r="L36" s="37">
-        <f>L30 - 1</f>
-        <v>-4</v>
-      </c>
-      <c r="M36" s="38">
-        <f t="shared" si="8"/>
-        <v>-2.4089021333016358</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:E9">
-    <cfRule type="top10" dxfId="10" priority="10" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="top10" dxfId="12" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M9">
-    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="M7:M10">
+    <cfRule type="top10" dxfId="11" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:M18">
-    <cfRule type="top10" dxfId="7" priority="7" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="M16:M19">
+    <cfRule type="top10" dxfId="10" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:M27">
+  <conditionalFormatting sqref="M25:M28">
+    <cfRule type="top10" dxfId="9" priority="14" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M37">
+    <cfRule type="top10" dxfId="8" priority="13" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:R10">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R19">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:R28">
     <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:M36">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="W7:W10">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16:W19">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25:W28">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>

--- a/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/PDF Submission/Solution Checks/Scratch Work.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/PDF Submission/Solution Checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1578" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{49990CA6-A1A7-4285-851E-E982B2183807}"/>
+  <xr:revisionPtr revIDLastSave="2050" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A06E1C4-FCBD-4838-8EAA-ED011DECC435}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
     <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
     <sheet name="Problem 3 (i)" sheetId="3" r:id="rId3"/>
     <sheet name="Problem 3 (ii)" sheetId="4" r:id="rId4"/>
+    <sheet name="Problem 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Problem 3 (ii)'!$B$3:$AD$11</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>Homes</t>
   </si>
@@ -356,6 +357,119 @@
   <si>
     <t>Iteration 5</t>
   </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>Eval Coefs</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Eval Function</t>
+  </si>
+  <si>
+    <t>Step 1: Calculate fitness of each, Then sum up mating pool</t>
+  </si>
+  <si>
+    <t>(i) 
+Prob. of Selection</t>
+  </si>
+  <si>
+    <t>Sum Total Fitness (Step 1)</t>
+  </si>
+  <si>
+    <t>Step 2: Calculate Probability of Selection</t>
+  </si>
+  <si>
+    <t>These are the evaluation function coefficients for x1…, x5</t>
+  </si>
+  <si>
+    <t>Sum Total Fitness Value of Pool</t>
+  </si>
+  <si>
+    <t>Part (i)</t>
+  </si>
+  <si>
+    <t>Part (ii)</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>Step 1: Find the Lowest and Highest Fitness Value Chromosomes</t>
+  </si>
+  <si>
+    <t>Offspring 1</t>
+  </si>
+  <si>
+    <t>Offspring 2</t>
+  </si>
+  <si>
+    <t>(Note Crossover point between 2nd and 3rd bit - highlighted for ease)</t>
+  </si>
+  <si>
+    <t>Offspring</t>
+  </si>
+  <si>
+    <r>
+      <t>calculation: Fitness</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chromosome</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / sum(FitnessOfAllChromosomes)</t>
+    </r>
+  </si>
+  <si>
+    <t>Part (iii)</t>
+  </si>
+  <si>
+    <t>Fittest Child:</t>
+  </si>
+  <si>
+    <t>Step 2 - Offspring: Breed the above chromosomes at crossover point</t>
+  </si>
+  <si>
+    <t>Assumes no use of the probability of selection from part (i)</t>
+  </si>
 </sst>
 </file>
 
@@ -369,7 +483,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +656,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,8 +756,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -837,6 +1064,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -846,7 +1220,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -950,6 +1324,57 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -959,27 +1384,7 @@
     <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4762,26 +5167,26 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4797,9 +5202,7 @@
   </sheetPr>
   <dimension ref="B2:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6261,40 +6664,645 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="top10" dxfId="12" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M10">
-    <cfRule type="top10" dxfId="11" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M19">
-    <cfRule type="top10" dxfId="10" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:M28">
-    <cfRule type="top10" dxfId="9" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M37">
-    <cfRule type="top10" dxfId="8" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R10">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R19">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R28">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:W10">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16:W19">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:W28">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D9E231-3205-4664-A989-90DE24B2A06E}">
+  <dimension ref="B2:I40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:G5" si="0">C5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="19" t="str">
+        <f>C9 &amp; "*" &amp; C5 &amp; " + "</f>
+        <v xml:space="preserve">x1*1 + </v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f t="shared" ref="D6:F6" si="1">D9 &amp; "*" &amp; D5 &amp; " + "</f>
+        <v xml:space="preserve">x2*2 + </v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">x3*3 + </v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">x4*4 + </v>
+      </c>
+      <c r="G6" s="19" t="str">
+        <f t="shared" ref="G6" si="2">G9 &amp; "*" &amp; G5</f>
+        <v>x5*5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="80" t="str">
+        <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
+        <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="66">
+        <v>1</v>
+      </c>
+      <c r="C10" s="63">
+        <v>1</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="F10" s="63">
+        <v>0</v>
+      </c>
+      <c r="G10" s="63">
+        <v>1</v>
+      </c>
+      <c r="H10" s="65">
+        <f>SUMPRODUCT(C10:G10, C$5:G$5)</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="81" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(H10)</f>
+        <v>=SUMPRODUCT(C10:G10, C$5:G$5)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="67">
+        <f>B10 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34">
+        <v>1</v>
+      </c>
+      <c r="H11" s="65">
+        <f t="shared" ref="H11:H13" si="3">SUMPRODUCT(C11:G11, C$5:G$5)</f>
+        <v>8</v>
+      </c>
+      <c r="I11" s="81" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(H11)</f>
+        <v>=SUMPRODUCT(C11:G11, C$5:G$5)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="67">
+        <f t="shared" ref="B12:B13" si="4">B11 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
+        <v>1</v>
+      </c>
+      <c r="G12" s="34">
+        <v>1</v>
+      </c>
+      <c r="H12" s="65">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="81" t="str">
+        <f t="shared" ref="I12:I13" ca="1" si="5">_xlfn.FORMULATEXT(H12)</f>
+        <v>=SUMPRODUCT(C12:G12, C$5:G$5)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="69">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="70">
+        <v>1</v>
+      </c>
+      <c r="D13" s="70">
+        <v>1</v>
+      </c>
+      <c r="E13" s="70">
+        <v>0</v>
+      </c>
+      <c r="F13" s="70">
+        <v>0</v>
+      </c>
+      <c r="G13" s="70">
+        <v>0</v>
+      </c>
+      <c r="H13" s="71">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="81" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>=SUMPRODUCT(C13:G13, C$5:G$5)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72">
+        <f>SUM(H10:H13)</f>
+        <v>28</v>
+      </c>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="I16" s="68"/>
+    </row>
+    <row r="17" spans="2:9" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="66">
+        <v>1</v>
+      </c>
+      <c r="C18" s="74">
+        <f t="shared" ref="C18:C22" si="6">H10</f>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f>$H$14</f>
+        <v>28</v>
+      </c>
+      <c r="E18" s="77">
+        <f>C18 / D18</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F18" s="81" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E18)</f>
+        <v>=C18 / D18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="67">
+        <f>B18 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="74">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D21" si="7">$H$14</f>
+        <v>28</v>
+      </c>
+      <c r="E19" s="78">
+        <f t="shared" ref="E19:E21" si="8">C19 / D19</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F19" s="81" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E19)</f>
+        <v>=C19 / D19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="67">
+        <f t="shared" ref="B20:B21" si="9">B19 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="74">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="78">
+        <f t="shared" si="8"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="F20" s="81" t="str">
+        <f t="shared" ref="F20:F21" ca="1" si="10">_xlfn.FORMULATEXT(E20)</f>
+        <v>=C20 / D20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="69">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="E21" s="79">
+        <f t="shared" si="8"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="F21" s="81" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>=C21 / D21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="80" t="str">
+        <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
+        <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="67">
+        <v>2</v>
+      </c>
+      <c r="C30" s="84">
+        <v>0</v>
+      </c>
+      <c r="D30" s="84">
+        <v>1</v>
+      </c>
+      <c r="E30" s="86">
+        <v>0</v>
+      </c>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
+      <c r="G30" s="86">
+        <v>1</v>
+      </c>
+      <c r="H30" s="65">
+        <f t="shared" ref="H30:H31" si="11">SUMPRODUCT(C30:G30, C$5:G$5)</f>
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="69">
+        <f t="shared" ref="B31" si="12">B30 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="85">
+        <v>1</v>
+      </c>
+      <c r="D31" s="85">
+        <v>1</v>
+      </c>
+      <c r="E31" s="87">
+        <v>0</v>
+      </c>
+      <c r="F31" s="87">
+        <v>0</v>
+      </c>
+      <c r="G31" s="87">
+        <v>0</v>
+      </c>
+      <c r="H31" s="71">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="80" t="str">
+        <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
+        <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="84">
+        <v>0</v>
+      </c>
+      <c r="D35" s="84">
+        <v>1</v>
+      </c>
+      <c r="E35" s="87">
+        <v>0</v>
+      </c>
+      <c r="F35" s="87">
+        <v>0</v>
+      </c>
+      <c r="G35" s="87">
+        <v>0</v>
+      </c>
+      <c r="H35" s="65">
+        <f t="shared" ref="H35:H36" si="13">SUMPRODUCT(C35:G35, C$5:G$5)</f>
+        <v>2</v>
+      </c>
+      <c r="I35" s="81" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(H35)</f>
+        <v>=SUMPRODUCT(C35:G35, C$5:G$5)</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="85">
+        <v>1</v>
+      </c>
+      <c r="D36" s="85">
+        <v>1</v>
+      </c>
+      <c r="E36" s="86">
+        <v>0</v>
+      </c>
+      <c r="F36" s="86">
+        <v>1</v>
+      </c>
+      <c r="G36" s="86">
+        <v>1</v>
+      </c>
+      <c r="H36" s="71">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="81" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(H36)</f>
+        <v>=SUMPRODUCT(C36:G36, C$5:G$5)</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B38" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="89" t="str">
+        <f>B36 &amp; " (Fitness Value of " &amp; H36 &amp; ")"</f>
+        <v>Offspring 2 (Fitness Value of 12)</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>